--- a/pred_ohlcv/54_21/2020-01-13 SOC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 SOC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-650834.9481114037</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-650834.9481114037</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-646648.2326114037</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-646648.2326114037</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-641648.2326114037</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-665951.1508114036</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-665951.1508114036</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-976485.9391114037</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-976485.9391114037</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-976485.9391114037</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-976485.9391114037</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-977405.7939114036</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-1052895.279011404</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-1051350.910011404</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-1058350.910011404</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-1058288.364335399</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-1068361.395835399</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-1060149.279235399</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-1139652.766435399</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-1097787.752635399</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-1091875.343876275</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-1094047.771876275</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-1094047.771876275</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-1094047.771876275</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-1094047.771876275</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-1097130.696476275</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-1097130.696476275</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-1097130.696476275</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-1095719.538076275</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-1095489.940876275</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-1094078.782476275</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-1092712.060676275</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-1095719.538076275</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-1095719.538076275</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-1096589.538076275</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-1096589.538076275</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1096589.538076275</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-1152011.543376275</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1146011.543376275</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1146046.543376275</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1146010.543376275</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-1146010.543376275</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1146010.543376275</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1144510.543376275</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1144626.181004829</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1144725.967704829</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1142291.934904829</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1283040.429904829</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-1276974.623804829</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-1277019.623804829</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1276839.623804829</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-1277082.195032483</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-1277051.195032483</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-1277051.195032483</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1326619.376532482</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-1364578.594632482</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-1364578.594632482</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1298374.905132482</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1298374.905132482</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1328193.604032482</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-1461139.296332482</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1585832.835232482</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1585832.835232482</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-1585832.835232482</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1585832.835232482</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1609970.368932482</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1784240.912132482</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1784240.912132482</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1782404.926820365</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1786431.081820365</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1782451.846220365</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-1774557.424220365</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-1774457.424220365</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-1831827.377120365</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1761001.264120365</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-1754912.264120365</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-1745302.500120365</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-1745302.500120365</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1745302.500120365</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-1829442.287820365</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-1831928.596505686</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-1834983.596505686</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-4597991.356763884</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-4486075.649715322</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-4560248.727115322</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-4560248.727115322</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-4560248.727115322</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-4305106.165038625</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-4305106.165038625</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-4304903.305938625</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-4304574.599138625</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-4304426.113638625</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-4317820.609771379</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-5762876.208786285</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-5786869.611586285</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-5775869.611586285</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-5804424.814386285</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-5804625.665086285</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-5875782.820786285</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-5899389.098786285</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-6042470.508786285</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-6042387.356786286</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-6042387.356786286</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-6051305.731686286</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-6067387.356786286</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-6067387.356786286</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-6067356.216786286</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-6067356.216786286</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-6068633.551586286</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-6068633.551586286</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-6083447.951886287</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-6083447.951886287</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-5842858.560086287</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-5911394.976386286</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-5911394.976386286</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-5936678.457586287</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-5936678.457586287</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-6141425.723086286</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-6146892.907086287</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-6004827.992786286</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-6190906.553050236</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-6357296.964950236</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-6407296.964950236</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-6509907.435450235</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-6571808.711950235</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-6554244.973150235</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-6720369.353450235</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-7421802.629450235</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-7675027.156850235</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-7324044.462450234</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-7797292.240850234</v>
       </c>
       <c r="H363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-7783100.657550234</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-7795992.967650235</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-7795895.826649585</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-7602744.952849586</v>
       </c>
       <c r="H369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-7635852.297045127</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-7684729.697145127</v>
       </c>
       <c r="H381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-7684729.697145127</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-7512857.146445127</v>
       </c>
       <c r="H383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-7551452.598445127</v>
       </c>
       <c r="H384">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-7285405.646445127</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-7160853.253942563</v>
       </c>
       <c r="H397">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-7160653.253942563</v>
       </c>
       <c r="H399">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-7160653.253942563</v>
       </c>
       <c r="H400">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-7160653.253942563</v>
       </c>
       <c r="H401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-7160653.253942563</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-7160653.253942563</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-6819824.322542563</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-6911692.504545107</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-6983222.788845108</v>
       </c>
       <c r="H411">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-6983322.788845108</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-6983322.788845108</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-6983222.788845108</v>
       </c>
       <c r="H414">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-6868966.743445108</v>
       </c>
       <c r="H415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-6868966.743445108</v>
       </c>
       <c r="H416">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-6868966.743445108</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-6868966.743445108</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-6868966.743445108</v>
       </c>
       <c r="H419">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-6868966.743445108</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-6868966.743445108</v>
       </c>
       <c r="H421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-6868966.743445108</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-6773529.743745107</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-6961561.444045107</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-6920073.973745108</v>
       </c>
       <c r="H437">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-6896991.422845108</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-6904676.904845107</v>
       </c>
       <c r="H439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-6904676.904845107</v>
       </c>
       <c r="H440">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-6863850.273645108</v>
       </c>
       <c r="H441">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-6863850.273645108</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-6863850.273645108</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-6879943.213245108</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-6879943.213245108</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-6879943.213245108</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-6879943.213245108</v>
       </c>
       <c r="H447">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-6923865.011245108</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-6904690.422145108</v>
       </c>
       <c r="H449">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-6938593.812345108</v>
       </c>
       <c r="H450">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-6940665.631545108</v>
       </c>
       <c r="H451">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-6940625.631545108</v>
       </c>
       <c r="H452">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-6970726.820745108</v>
       </c>
       <c r="H453">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-6992378.862745108</v>
       </c>
       <c r="H454">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-6992378.862745108</v>
       </c>
       <c r="H455">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-7012346.847345108</v>
       </c>
       <c r="H456">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-6998902.071845108</v>
       </c>
       <c r="H457">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-7127420.409545108</v>
       </c>
       <c r="H458">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-6932846.418945108</v>
       </c>
       <c r="H459">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-6932846.418945108</v>
       </c>
       <c r="H460">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-6892784.156745108</v>
       </c>
       <c r="H461">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-6857524.731345108</v>
       </c>
       <c r="H462">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-6836991.165745107</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-6799110.258245108</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-6739323.995545108</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-6747172.224445108</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-6742874.430245108</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-6785415.216845108</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-6780290.838845109</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-6680528.702145109</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-6680528.702145109</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-6666271.999245109</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-6666271.999245109</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-6666271.999245109</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-6666271.999245109</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-6674056.250045109</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-6674056.250045109</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-6674056.250045109</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-6673679.797145109</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-6673679.797145109</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-6653104.039645108</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-6651257.700045109</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-6651257.700045109</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-6651257.700045109</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-6651186.761845109</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-6651186.761845109</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-6651186.761845109</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-6979426.255745109</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-6979426.255745109</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-6975942.007745109</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-7009546.35804511</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-6853796.084045109</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-6819793.220745109</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-6353715.144945109</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-6353715.144945109</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-6870095.294645109</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-6836878.154945109</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-6838814.400145109</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-13 SOC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 SOC ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>-665951.1508114036</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-665951.1508114036</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-976485.9391114037</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-1060149.279235399</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-1139652.766435399</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-1094047.771876275</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-1094047.771876275</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-1094047.771876275</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-1094047.771876275</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-1097130.696476275</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-1097130.696476275</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-1097130.696476275</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-1095719.538076275</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-1095489.940876275</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-1094078.782476275</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-1092712.060676275</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-1095719.538076275</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-1095719.538076275</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-1096589.538076275</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-1096589.538076275</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1096589.538076275</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-1152011.543376275</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1146011.543376275</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1146046.543376275</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1146010.543376275</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-1146010.543376275</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1146010.543376275</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1144510.543376275</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1144626.181004829</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1144725.967704829</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1142291.934904829</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1283040.429904829</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-1276974.623804829</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-1277019.623804829</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1276839.623804829</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-1277082.195032483</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-1277051.195032483</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-1277051.195032483</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1326619.376532482</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-1364578.594632482</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-1364578.594632482</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1298374.905132482</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1298374.905132482</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1328193.604032482</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-1461139.296332482</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1585832.835232482</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1585832.835232482</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-1745302.500120365</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-1745302.500120365</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1745302.500120365</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-1829442.287820365</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-4597991.356763884</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-4486075.649715322</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-4560248.727115322</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-4560248.727115322</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-4560248.727115322</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-4305106.165038625</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-4305106.165038625</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-4304903.305938625</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-4304574.599138625</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-4304426.113638625</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-4317820.609771379</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-5762876.208786285</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-5786869.611586285</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-5775869.611586285</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-5804424.814386285</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-5804625.665086285</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-5875782.820786285</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-5899389.098786285</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-6042470.508786285</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-6042387.356786286</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-6042387.356786286</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-6051305.731686286</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-6067387.356786286</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-6067387.356786286</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-6067356.216786286</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-6067356.216786286</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-6068633.551586286</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-6068633.551586286</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-6083447.951886287</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-6083447.951886287</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-5842858.560086287</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-5911394.976386286</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-5911394.976386286</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-5936678.457586287</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-5936678.457586287</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-6141425.723086286</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-6146892.907086287</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-6004827.992786286</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-6190906.553050236</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-6357296.964950236</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-6407296.964950236</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-6509907.435450235</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-6571808.711950235</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-6554244.973150235</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-6720369.353450235</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-7421802.629450235</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-7675027.156850235</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-7324044.462450234</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-7783100.657550234</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-7795992.967650235</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-7795895.826649585</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-7602744.952849586</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-7285405.646445127</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-7159575.579142563</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-7160653.253942563</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-7160653.253942563</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-7160653.253942563</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-7160653.253942563</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-7160653.253942563</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-6819824.322542563</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-6842260.885642563</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-6842260.885642563</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-6829536.007645108</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-6911692.504545107</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-6983222.788845108</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-6983322.788845108</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-6983322.788845108</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-6983222.788845108</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-6868966.743445108</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-6868966.743445108</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-6868966.743445108</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-6868966.743445108</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-6868966.743445108</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-6868966.743445108</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-6868966.743445108</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-6868966.743445108</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-6864351.539945108</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-6654488.854145108</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-6773529.743745107</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-6843433.817745107</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-6961561.444045107</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-6902633.744245107</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-6920073.973745108</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-6896991.422845108</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-6904676.904845107</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-6904676.904845107</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-6863850.273645108</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-6863850.273645108</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-6863850.273645108</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-6879943.213245108</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-6879943.213245108</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-6879943.213245108</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-6879943.213245108</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-6923865.011245108</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-6904690.422145108</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-6938593.812345108</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-6940665.631545108</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-6940625.631545108</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-6970726.820745108</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-6992378.862745108</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-6992378.862745108</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-7012346.847345108</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-6998902.071845108</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-7127420.409545108</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-6932846.418945108</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-6932846.418945108</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-6892784.156745108</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-6857524.731345108</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-6857524.731345108</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-6836991.165745107</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-6799110.258245108</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-6739323.995545108</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-6747172.224445108</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-6742874.430245108</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-6785415.216845108</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-6780290.838845109</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-6680528.702145109</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-6680528.702145109</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-6666271.999245109</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-6666271.999245109</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-6666271.999245109</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-6666271.999245109</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-6674056.250045109</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-6674056.250045109</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-6674056.250045109</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-6673679.797145109</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-6673679.797145109</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-6653104.039645108</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-6651257.700045109</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-6651257.700045109</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-6651257.700045109</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-6651186.761845109</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-6651186.761845109</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-6651186.761845109</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-6979426.255745109</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-6979426.255745109</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-6975942.007745109</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-7009546.35804511</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-6853796.084045109</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-6819793.220745109</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-6353715.144945109</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-6353715.144945109</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-6870095.294645109</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-6836878.154945109</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-6838814.400145109</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
